--- a/Wyniki 3/Ostateczne wyniki/S3 - podsumowanie.xlsx
+++ b/Wyniki 3/Ostateczne wyniki/S3 - podsumowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\Ostateczne wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18F1174-7E35-4B7D-A8AD-EFCEDD583C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EB26EA-A2BC-474A-83C9-4003F8CB1BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G5:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
